--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总-新版.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总-新版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -6636,7 +6636,7 @@
   <sheetPr/>
   <dimension ref="A1:BK555"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="S15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -17077,8 +17077,8 @@
   <sheetPr/>
   <dimension ref="A1:CZ40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
